--- a/src/test/resources/datasupplier.xlsx
+++ b/src/test/resources/datasupplier.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\eclipseWorkspace\WebAutomationFramework\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29FA743-C137-4E4D-A1A4-0DA21D85648A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC09430-AF51-49F4-A9AB-FA86C3458D90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5F67BB5E-CEEC-48F2-B2BB-DCAE34F7E073}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="75">
   <si>
     <t>email</t>
   </si>
@@ -85,9 +85,6 @@
     <t>invalidemail</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>noname</t>
   </si>
   <si>
@@ -100,36 +97,12 @@
     <t>existinguser</t>
   </si>
   <si>
-    <t>jhonny</t>
-  </si>
-  <si>
-    <t>jason@gmail.com</t>
-  </si>
-  <si>
-    <t>jacksonhole</t>
-  </si>
-  <si>
-    <t>vegas</t>
-  </si>
-  <si>
-    <t>vegarome</t>
-  </si>
-  <si>
-    <t>framework</t>
-  </si>
-  <si>
     <t>validallfields</t>
   </si>
   <si>
     <t>validmandatoryfields</t>
   </si>
   <si>
-    <t>ramson</t>
-  </si>
-  <si>
-    <t>ramson@gmail.com</t>
-  </si>
-  <si>
     <t>validwithoutpassword</t>
   </si>
   <si>
@@ -287,12 +260,6 @@
   </si>
   <si>
     <t>hleoojk19</t>
-  </si>
-  <si>
-    <t>jacksonholefinal13@gmail.com</t>
-  </si>
-  <si>
-    <t>jhonnyplayerandom@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -661,521 +628,416 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9ACCCA-2CCD-4B6E-B27A-5FD76E4408E5}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B1" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>39</v>
       </c>
-      <c r="K1" t="s">
+      <c r="C5" t="s">
         <v>40</v>
       </c>
-      <c r="L1" t="s">
+      <c r="D5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1993</v>
+      </c>
+      <c r="G5" t="s">
         <v>41</v>
       </c>
-      <c r="M1" t="s">
+      <c r="H5" t="s">
         <v>42</v>
       </c>
-      <c r="N1" t="s">
+      <c r="I5" t="s">
         <v>43</v>
       </c>
-      <c r="O1" t="s">
+      <c r="J5" t="s">
         <v>44</v>
       </c>
-      <c r="P1" t="s">
+      <c r="K5" t="s">
         <v>45</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="L5" t="s">
         <v>46</v>
       </c>
-      <c r="R1" t="s">
+      <c r="M5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="N5" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5">
+        <v>512364</v>
+      </c>
+      <c r="P5">
+        <v>1023654789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-      <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5">
-        <v>1993</v>
-      </c>
-      <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" t="s">
-        <v>53</v>
-      </c>
-      <c r="M5" t="s">
-        <v>54</v>
-      </c>
-      <c r="N5" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" t="s">
-        <v>56</v>
-      </c>
-      <c r="P5" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q5">
-        <v>512364</v>
-      </c>
-      <c r="R5">
-        <v>1023654789</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>58</v>
-      </c>
-      <c r="I8" t="s">
-        <v>59</v>
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" t="s">
+        <v>51</v>
       </c>
       <c r="J8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>54</v>
       </c>
       <c r="N8" t="s">
-        <v>62</v>
-      </c>
-      <c r="O8" t="s">
-        <v>63</v>
-      </c>
-      <c r="P8" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q8">
+        <v>55</v>
+      </c>
+      <c r="O8">
         <v>541298</v>
       </c>
-      <c r="R8">
+      <c r="P8">
         <v>3654128795</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I9" t="s">
-        <v>59</v>
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>50</v>
+      </c>
+      <c r="H9" t="s">
+        <v>51</v>
       </c>
       <c r="J9" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
         <v>65</v>
       </c>
+      <c r="M9" t="s">
+        <v>66</v>
+      </c>
       <c r="N9" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9">
+        <v>412578</v>
+      </c>
+      <c r="P9">
+        <v>9845236170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10">
+        <v>412578</v>
+      </c>
+      <c r="P10">
+        <v>9845236170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>46</v>
+      </c>
+      <c r="M11" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" t="s">
+        <v>59</v>
+      </c>
+      <c r="O11">
+        <v>412578</v>
+      </c>
+      <c r="P11">
+        <v>9845236170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" t="s">
+        <v>50</v>
+      </c>
+      <c r="H12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O12">
+        <v>412578</v>
+      </c>
+      <c r="P12">
+        <v>9845236170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>46</v>
+      </c>
+      <c r="N13" t="s">
+        <v>59</v>
+      </c>
+      <c r="O13">
+        <v>412578</v>
+      </c>
+      <c r="P13">
+        <v>9845236170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G14" t="s">
+        <v>50</v>
+      </c>
+      <c r="H14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" t="s">
+        <v>58</v>
+      </c>
+      <c r="O14">
+        <v>748321</v>
+      </c>
+      <c r="P14">
+        <v>1245789335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="G15" t="s">
+        <v>50</v>
+      </c>
+      <c r="H15" t="s">
+        <v>51</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="L15" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15">
+        <v>1245789335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" t="s">
         <v>74</v>
       </c>
-      <c r="O9" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q9">
-        <v>412578</v>
-      </c>
-      <c r="R9">
-        <v>9845236170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J10" t="s">
-        <v>60</v>
-      </c>
-      <c r="L10" t="s">
-        <v>65</v>
-      </c>
-      <c r="N10" t="s">
-        <v>66</v>
-      </c>
-      <c r="O10" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q10">
-        <v>412578</v>
-      </c>
-      <c r="R10">
-        <v>9845236170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>70</v>
-      </c>
-      <c r="I11" t="s">
-        <v>59</v>
-      </c>
-      <c r="L11" t="s">
-        <v>65</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="G17" t="s">
+        <v>50</v>
+      </c>
+      <c r="H17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="L17" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" t="s">
         <v>55</v>
       </c>
-      <c r="O11" t="s">
-        <v>67</v>
-      </c>
-      <c r="P11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q11">
-        <v>412578</v>
-      </c>
-      <c r="R11">
-        <v>9845236170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" t="s">
-        <v>59</v>
-      </c>
-      <c r="J12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" t="s">
-        <v>66</v>
-      </c>
-      <c r="O12" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q12">
-        <v>412578</v>
-      </c>
-      <c r="R12">
-        <v>9845236170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-      <c r="J13" t="s">
-        <v>60</v>
-      </c>
-      <c r="L13" t="s">
-        <v>65</v>
-      </c>
-      <c r="N13" t="s">
-        <v>55</v>
-      </c>
-      <c r="P13" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q13">
-        <v>412578</v>
-      </c>
-      <c r="R13">
-        <v>9845236170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
-      </c>
-      <c r="I14" t="s">
-        <v>59</v>
-      </c>
-      <c r="J14" t="s">
-        <v>60</v>
-      </c>
-      <c r="L14" t="s">
-        <v>65</v>
-      </c>
-      <c r="N14" t="s">
-        <v>66</v>
-      </c>
-      <c r="O14" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q14">
+      <c r="O17">
         <v>748321</v>
       </c>
-      <c r="R14">
-        <v>1245789335</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>82</v>
-      </c>
-      <c r="I15" t="s">
-        <v>59</v>
-      </c>
-      <c r="J15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L15" t="s">
-        <v>65</v>
-      </c>
-      <c r="N15" t="s">
-        <v>66</v>
-      </c>
-      <c r="O15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R15">
-        <v>1245789335</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>81</v>
-      </c>
-      <c r="E17" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" t="s">
-        <v>59</v>
-      </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N17" t="s">
-        <v>66</v>
-      </c>
-      <c r="O17" t="s">
-        <v>67</v>
-      </c>
-      <c r="P17" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q17">
-        <v>748321</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{EFAA3CAC-0B1E-4BE2-AB8F-E01A10A58E01}"/>
-    <hyperlink ref="B5" r:id="rId2" xr:uid="{2D7EBF3C-EA5B-4918-BAA5-C038362DB811}"/>
-    <hyperlink ref="A5" r:id="rId3" display="jacksonhole@gmail.com" xr:uid="{3AEA27FB-1DF7-4D7A-8BB1-06BC27AAD870}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{92C35087-07AC-4813-A463-6409A007747A}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{22EABADA-DB55-44B6-9CD7-35C83F803456}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{68ABDA8F-5CF4-4774-9DF8-592476679DBF}"/>
-    <hyperlink ref="B10:B12" r:id="rId7" display="ramson@gmail.com" xr:uid="{5B45C7A6-1868-498B-9662-1FD33E8A7122}"/>
-    <hyperlink ref="B13:B17" r:id="rId8" display="ramson@gmail.com" xr:uid="{4ED5261F-C75B-4419-80E4-3C3754C8C86A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
